--- a/biology/Zoologie/Chlosyne_janais/Chlosyne_janais.xlsx
+++ b/biology/Zoologie/Chlosyne_janais/Chlosyne_janais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne janais est un insecte lépidoptère de la famille des Nymphalidae. C'est un papillon commun en Amérique où on le trouve depuis le nord de la Colombie jusqu'au sud du Texas.
 Il a une envergure de 4,8 à 6,7 cm. Il vit en bordure des forêts des plaines tropicales et subtropicales et le long des cours d'eau. Il vole toute l'année dans les régions tropicales et de juillet à novembre dans les régions tempérées avec plusieurs générations sur une saison.
